--- a/data/steel/birat_factories.xlsx
+++ b/data/steel/birat_factories.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="405" yWindow="465" windowWidth="26520" windowHeight="16515" activeTab="3"/>
+    <workbookView xWindow="405" yWindow="465" windowWidth="26520" windowHeight="16515" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="base chains" sheetId="9" r:id="rId1"/>
     <sheet name="base connections" sheetId="1" r:id="rId2"/>
     <sheet name="TGR-CCS chains" sheetId="10" r:id="rId3"/>
     <sheet name="TGR-CCS connect" sheetId="11" r:id="rId4"/>
+    <sheet name="BECCS chains" sheetId="12" r:id="rId5"/>
+    <sheet name="BECCS connect" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="39">
   <si>
     <t>hot rolled coil</t>
   </si>
@@ -114,6 +116,36 @@
   </si>
   <si>
     <t>CO2_capture-compression</t>
+  </si>
+  <si>
+    <t>biofuel</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>stored CO2</t>
+  </si>
+  <si>
+    <t>bb_CO2_storage</t>
+  </si>
+  <si>
+    <t>CO2 Storage</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>bb_fuel_upstream</t>
+  </si>
+  <si>
+    <t>bb_biofuel_upstream</t>
+  </si>
+  <si>
+    <t>CO2__compressed</t>
+  </si>
+  <si>
+    <t>CO2__emitted</t>
   </si>
 </sst>
 </file>
@@ -498,7 +530,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -564,7 +596,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -770,7 +802,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -814,7 +846,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -847,15 +879,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -904,22 +938,22 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -941,11 +975,376 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
       <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/steel/birat_factories.xlsx
+++ b/data/steel/birat_factories.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4116917C-A15D-D044-A153-D04CE3F34535}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="465" windowWidth="26520" windowHeight="16515" activeTab="5"/>
+    <workbookView xWindow="1800" yWindow="680" windowWidth="26520" windowHeight="17240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base chains" sheetId="9" r:id="rId1"/>
     <sheet name="base connections" sheetId="1" r:id="rId2"/>
     <sheet name="TGR-CCS chains" sheetId="10" r:id="rId3"/>
     <sheet name="TGR-CCS connect" sheetId="11" r:id="rId4"/>
-    <sheet name="BECCS chains" sheetId="12" r:id="rId5"/>
-    <sheet name="BECCS connect" sheetId="13" r:id="rId6"/>
+    <sheet name="CCS-LC chains" sheetId="12" r:id="rId5"/>
+    <sheet name="CCS-LC connect" sheetId="13" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="44">
   <si>
     <t>hot rolled coil</t>
   </si>
@@ -133,25 +134,40 @@
     <t>CO2 Storage</t>
   </si>
   <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>bb_fuel_upstream</t>
   </si>
   <si>
-    <t>bb_biofuel_upstream</t>
-  </si>
-  <si>
     <t>CO2__compressed</t>
   </si>
   <si>
     <t>CO2__emitted</t>
+  </si>
+  <si>
+    <t>secondary fuel</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>upstream</t>
+  </si>
+  <si>
+    <t>downstream</t>
+  </si>
+  <si>
+    <t>meta-notes</t>
+  </si>
+  <si>
+    <t>includes both CO2 of steel production and electricity (but not CO2 from electricity needed for the CO2 plant)</t>
+  </si>
+  <si>
+    <t>fossil fuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -526,22 +542,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -558,7 +574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -572,7 +588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -592,21 +608,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
@@ -615,7 +631,7 @@
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -653,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -679,24 +695,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4" s="3"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="6"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5"/>
@@ -704,7 +720,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
       <c r="E10" s="7"/>
       <c r="F10" s="5"/>
@@ -712,7 +728,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="5"/>
@@ -720,7 +736,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -729,7 +745,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -738,7 +754,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -747,7 +763,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -756,7 +772,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -765,7 +781,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -775,7 +791,7 @@
       <c r="J17" s="2"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -784,7 +800,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -798,22 +814,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -830,7 +846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -844,7 +860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -858,7 +874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -878,21 +894,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -930,7 +946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -956,7 +972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -982,7 +998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -1014,22 +1030,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1046,7 +1062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1074,7 +1090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1088,45 +1104,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1136,24 +1138,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1190,8 +1193,14 @@
       <c r="L1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>27</v>
@@ -1217,7 +1226,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1230,7 +1242,7 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
@@ -1243,35 +1255,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1279,23 +1300,26 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1306,44 +1330,134 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H10" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I10" t="s">
         <v>33</v>
       </c>
     </row>

--- a/data/steel/birat_factories.xlsx
+++ b/data/steel/birat_factories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4116917C-A15D-D044-A153-D04CE3F34535}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29C04D6-9BE9-C146-8949-4CD9908AF917}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="680" windowWidth="26520" windowHeight="17240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="760" windowWidth="26520" windowHeight="17240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base chains" sheetId="9" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>CO2__emitted</t>
   </si>
   <si>
-    <t>secondary fuel</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
@@ -158,10 +155,13 @@
     <t>meta-notes</t>
   </si>
   <si>
-    <t>includes both CO2 of steel production and electricity (but not CO2 from electricity needed for the CO2 plant)</t>
-  </si>
-  <si>
     <t>fossil fuel</t>
+  </si>
+  <si>
+    <t>secondary fuel__TGR</t>
+  </si>
+  <si>
+    <t>includes  CO2 from electricity generated for steel plant (but not CO2 from electricity needed for the CO2 plant)</t>
   </si>
 </sst>
 </file>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1194,7 +1194,7 @@
         <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1228,7 +1228,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1260,9 +1260,9 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
@@ -1284,12 +1284,12 @@
         <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1330,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1388,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
